--- a/Document/강성민/졸작 여름방학 계획서_강성민.xlsx
+++ b/Document/강성민/졸작 여름방학 계획서_강성민.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhkgk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcw97\Desktop\2024CapstoneProject\Document\강성민\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{925E1027-B575-4392-8C96-885FEF3ED00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B803A22-0CF4-4082-9D91-378F158E3977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,6 +110,8 @@
         <sz val="11"/>
         <color rgb="FF404040"/>
         <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -121,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="d"/>
-    <numFmt numFmtId="179" formatCode="m&quot;월&quot;"/>
+    <numFmt numFmtId="176" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="m&quot;월&quot;"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -438,7 +440,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -461,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7" applyFill="1">
@@ -476,7 +478,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="5" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="6" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="6" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3">
@@ -494,146 +496,146 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="5" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="14" borderId="0" xfId="6" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="4">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="5" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="14" borderId="0" xfId="6" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -867,7 +869,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -876,7 +878,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
@@ -1102,60 +1104,60 @@
   <dimension ref="B1:AD46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="3" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="2" customWidth="1"/>
-    <col min="18" max="30" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" style="3" customWidth="1"/>
+    <col min="3" max="17" width="5.58203125" style="2" customWidth="1"/>
+    <col min="18" max="30" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="62">
         <f>DATEVALUE("2024/06/25")</f>
         <v>45468</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -1275,7 +1277,7 @@
     </row>
     <row r="5" spans="2:30" ht="12" customHeight="1">
       <c r="B5" s="4"/>
-      <c r="C5" s="56" t="str">
+      <c r="C5" s="20" t="str">
         <f>LOWER(TEXT(C6,"aaa"))</f>
         <v>화</v>
       </c>
@@ -1303,7 +1305,7 @@
         <f t="shared" si="4"/>
         <v>월</v>
       </c>
-      <c r="J5" s="56" t="str">
+      <c r="J5" s="20" t="str">
         <f t="shared" si="4"/>
         <v>화</v>
       </c>
@@ -1331,7 +1333,7 @@
         <f t="shared" si="4"/>
         <v>월</v>
       </c>
-      <c r="Q5" s="56" t="str">
+      <c r="Q5" s="20" t="str">
         <f t="shared" si="4"/>
         <v>화</v>
       </c>
@@ -1392,155 +1394,155 @@
       <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="21">
         <f>C2</f>
         <v>45468</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>C6+1</f>
         <v>45469</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f t="shared" ref="E6:Q6" si="5">D6+1</f>
         <v>45470</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <f t="shared" si="5"/>
         <v>45471</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <f t="shared" si="5"/>
         <v>45472</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f t="shared" si="5"/>
         <v>45473</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <f t="shared" si="5"/>
         <v>45474</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="21">
         <f t="shared" si="5"/>
         <v>45475</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <f t="shared" si="5"/>
         <v>45476</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
         <f t="shared" si="5"/>
         <v>45477</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="16">
         <f t="shared" si="5"/>
         <v>45478</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="16">
         <f t="shared" si="5"/>
         <v>45479</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="16">
         <f t="shared" si="5"/>
         <v>45480</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="16">
         <f t="shared" si="5"/>
         <v>45481</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="21">
         <f t="shared" si="5"/>
         <v>45482</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="17">
         <f t="shared" ref="R6:X6" si="6">Q6+1</f>
         <v>45483</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="17">
         <f t="shared" si="6"/>
         <v>45484</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="17">
         <f t="shared" si="6"/>
         <v>45485</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="17">
         <f t="shared" si="6"/>
         <v>45486</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="17">
         <f t="shared" si="6"/>
         <v>45487</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="17">
         <f t="shared" si="6"/>
         <v>45488</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="16">
         <f t="shared" si="6"/>
         <v>45489</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="16">
         <f t="shared" ref="Y6:AC6" si="7">X6+1</f>
         <v>45490</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="16">
         <f t="shared" si="7"/>
         <v>45491</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AA6" s="16">
         <f t="shared" si="7"/>
         <v>45492</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AB6" s="16">
         <f t="shared" si="7"/>
         <v>45493</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="16">
         <f t="shared" si="7"/>
         <v>45494</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="16">
         <f>AC6+1</f>
         <v>45495</v>
       </c>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1">
       <c r="B7" s="11"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="20" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="31" t="s">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="30"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="45"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1">
       <c r="B8" s="11"/>
@@ -1558,24 +1560,24 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="34" t="s">
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="33"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1">
       <c r="B9" s="11"/>
@@ -1593,20 +1595,20 @@
       <c r="N9" s="12"/>
       <c r="O9" s="13"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="24"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="19"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1">
       <c r="B10" s="11"/>
@@ -1725,7 +1727,7 @@
     </row>
     <row r="11" spans="2:30" ht="30" customHeight="1">
       <c r="B11" s="11"/>
-      <c r="C11" s="56" t="str">
+      <c r="C11" s="20" t="str">
         <f>LOWER(TEXT(C12,"aaa"))</f>
         <v>화</v>
       </c>
@@ -1753,7 +1755,7 @@
         <f t="shared" si="12"/>
         <v>월</v>
       </c>
-      <c r="J11" s="56" t="str">
+      <c r="J11" s="20" t="str">
         <f t="shared" si="12"/>
         <v>화</v>
       </c>
@@ -1781,7 +1783,7 @@
         <f t="shared" si="12"/>
         <v>월</v>
       </c>
-      <c r="Q11" s="56" t="str">
+      <c r="Q11" s="20" t="str">
         <f t="shared" si="12"/>
         <v>화</v>
       </c>
@@ -1840,221 +1842,221 @@
     </row>
     <row r="12" spans="2:30" ht="30" customHeight="1">
       <c r="B12" s="11"/>
-      <c r="C12" s="57">
+      <c r="C12" s="21">
         <f>AD6+1</f>
         <v>45496</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <f t="shared" ref="D12:AD12" si="13">C12+1</f>
         <v>45497</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <f t="shared" si="13"/>
         <v>45498</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <f t="shared" si="13"/>
         <v>45499</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <f t="shared" si="13"/>
         <v>45500</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f t="shared" si="13"/>
         <v>45501</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <f t="shared" si="13"/>
         <v>45502</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="21">
         <f t="shared" si="13"/>
         <v>45503</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="16">
         <f t="shared" si="13"/>
         <v>45504</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="16">
         <f t="shared" si="13"/>
         <v>45505</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="16">
         <f t="shared" si="13"/>
         <v>45506</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="16">
         <f t="shared" si="13"/>
         <v>45507</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="16">
         <f t="shared" si="13"/>
         <v>45508</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="16">
         <f t="shared" si="13"/>
         <v>45509</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="21">
         <f t="shared" si="13"/>
         <v>45510</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="17">
         <f t="shared" si="13"/>
         <v>45511</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="17">
         <f t="shared" si="13"/>
         <v>45512</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="17">
         <f t="shared" si="13"/>
         <v>45513</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="17">
         <f t="shared" si="13"/>
         <v>45514</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="17">
         <f t="shared" si="13"/>
         <v>45515</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="17">
         <f t="shared" si="13"/>
         <v>45516</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="16">
         <f t="shared" si="13"/>
         <v>45517</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="16">
         <f t="shared" si="13"/>
         <v>45518</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="16">
         <f t="shared" si="13"/>
         <v>45519</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AA12" s="16">
         <f t="shared" si="13"/>
         <v>45520</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="16">
         <f t="shared" si="13"/>
         <v>45521</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AC12" s="16">
         <f t="shared" si="13"/>
         <v>45522</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="16">
         <f t="shared" si="13"/>
         <v>45523</v>
       </c>
     </row>
     <row r="13" spans="2:30" ht="30" customHeight="1">
       <c r="B13" s="11"/>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="44" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="43"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="54"/>
     </row>
     <row r="14" spans="2:30" ht="30" customHeight="1">
       <c r="B14" s="11"/>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="47" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="25" t="s">
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="27"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="32"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
       <c r="B15" s="11"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="24"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="19"/>
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1">
       <c r="B16" s="11"/>
@@ -2173,7 +2175,7 @@
     </row>
     <row r="17" spans="2:30" ht="30" customHeight="1">
       <c r="B17" s="11"/>
-      <c r="C17" s="56" t="str">
+      <c r="C17" s="20" t="str">
         <f>LOWER(TEXT(C18,"aaa"))</f>
         <v>화</v>
       </c>
@@ -2201,7 +2203,7 @@
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
-      <c r="J17" s="56" t="str">
+      <c r="J17" s="20" t="str">
         <f t="shared" si="18"/>
         <v>화</v>
       </c>
@@ -2229,7 +2231,7 @@
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
-      <c r="Q17" s="56" t="str">
+      <c r="Q17" s="20" t="str">
         <f t="shared" si="18"/>
         <v>화</v>
       </c>
@@ -2288,91 +2290,91 @@
     </row>
     <row r="18" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="11"/>
-      <c r="C18" s="57">
+      <c r="C18" s="21">
         <f>AD12+1</f>
         <v>45524</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <f t="shared" ref="D18:AD18" si="19">C18+1</f>
         <v>45525</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <f t="shared" si="19"/>
         <v>45526</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <f t="shared" si="19"/>
         <v>45527</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <f t="shared" si="19"/>
         <v>45528</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f t="shared" si="19"/>
         <v>45529</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="17">
         <f t="shared" si="19"/>
         <v>45530</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="21">
         <f t="shared" si="19"/>
         <v>45531</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="16">
         <f t="shared" si="19"/>
         <v>45532</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="16">
         <f t="shared" si="19"/>
         <v>45533</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="16">
         <f t="shared" si="19"/>
         <v>45534</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="16">
         <f t="shared" si="19"/>
         <v>45535</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="16">
         <f t="shared" si="19"/>
         <v>45536</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="16">
         <f t="shared" si="19"/>
         <v>45537</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="21">
         <f>P18+1</f>
         <v>45538</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="17">
         <f>Q18+1</f>
         <v>45539</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="17">
         <f t="shared" si="19"/>
         <v>45540</v>
       </c>
-      <c r="T18" s="19">
+      <c r="T18" s="17">
         <f t="shared" si="19"/>
         <v>45541</v>
       </c>
-      <c r="U18" s="19">
+      <c r="U18" s="17">
         <f t="shared" si="19"/>
         <v>45542</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="17">
         <f t="shared" si="19"/>
         <v>45543</v>
       </c>
-      <c r="W18" s="19">
+      <c r="W18" s="17">
         <f t="shared" si="19"/>
         <v>45544</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="16">
         <f t="shared" si="19"/>
         <v>45545</v>
       </c>
@@ -2403,131 +2405,131 @@
     </row>
     <row r="19" spans="2:30" ht="30" customHeight="1">
       <c r="B19" s="11"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="52"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="29"/>
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1">
       <c r="B20" s="11"/>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="25" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="55" t="s">
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="54"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="35"/>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="62" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="39"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="38"/>
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1">
       <c r="B22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="24"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="19"/>
     </row>
     <row r="23" spans="2:30" ht="30" customHeight="1">
       <c r="B23"/>
@@ -2961,6 +2963,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="C19:X19"/>
     <mergeCell ref="L20:P20"/>
     <mergeCell ref="Q20:AD20"/>
@@ -2976,8 +2980,6 @@
     <mergeCell ref="K14:Y14"/>
     <mergeCell ref="Z14:AD14"/>
     <mergeCell ref="C20:K20"/>
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">
@@ -3006,7 +3008,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"맑은 고딕,Regular"Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
